--- a/excels/Bristol.xlsx
+++ b/excels/Bristol.xlsx
@@ -4149,7 +4149,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>2685.313646898634</v>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>2685.313646898634</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>2685.313646898634</v>
@@ -4236,7 +4236,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>2685.313646898634</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>2685.313646898634</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>2685.313646898634</v>
@@ -4323,7 +4323,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>2685.313646898634</v>
@@ -4352,7 +4352,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>2882.87753541838</v>
@@ -4381,7 +4381,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>2134.156041424344</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>2742.415176358909</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>3452.542367362742</v>
@@ -4468,7 +4468,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>3176.220489134999</v>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>3452.542367362742</v>
@@ -4526,7 +4526,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>3176.220489134999</v>
@@ -4555,7 +4555,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>2694.823270812291</v>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>2166.243317309084</v>
@@ -4613,7 +4613,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>2713.477982698369</v>
@@ -4642,7 +4642,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>3252.790914027758</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>3239.875637680616</v>
@@ -4700,7 +4700,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>3239.875637680616</v>
@@ -4729,7 +4729,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>3239.875637680616</v>
@@ -4758,7 +4758,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>3239.875637680616</v>
@@ -4787,7 +4787,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>3239.875637680616</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>3407.16681364779</v>
@@ -4845,7 +4845,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>3239.875637680616</v>
@@ -4874,7 +4874,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>3239.875637680616</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>3239.875637680616</v>
@@ -4932,7 +4932,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>3201.278591690913</v>
@@ -4961,7 +4961,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>3409.171757117085</v>
@@ -4990,7 +4990,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>2994.485499278027</v>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>2994.485499278027</v>
@@ -5048,7 +5048,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>3051.062037657856</v>
@@ -5077,7 +5077,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>2375.720900775261</v>
@@ -5106,7 +5106,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>3261.840205117716</v>
@@ -5135,7 +5135,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>2177.012406247244</v>
@@ -5164,7 +5164,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>3278.497510871382</v>
@@ -5193,7 +5193,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>3215.723627368475</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>3215.723627368475</v>
@@ -5251,7 +5251,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>3215.723627368475</v>
@@ -5280,7 +5280,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>3215.723627368475</v>
@@ -5309,7 +5309,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>3215.723627368475</v>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>3349.433929456578</v>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>2184.573813434042</v>
@@ -5396,7 +5396,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>2199.511991660602</v>
@@ -5425,7 +5425,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>2184.573813434042</v>
@@ -5454,7 +5454,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>2180.368400045119</v>
@@ -5483,7 +5483,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>2206.088284686981</v>
@@ -5512,7 +5512,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>2206.088284686981</v>
@@ -5541,7 +5541,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>2180.368400045119</v>
@@ -5570,7 +5570,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>2206.088284686981</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>2180.368400045119</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>3466.209689721104</v>
@@ -5657,7 +5657,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>3466.209689721104</v>
@@ -5686,7 +5686,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>3466.209689721104</v>
@@ -5715,7 +5715,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>3281.039583816041</v>
@@ -5744,7 +5744,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>3466.209689721104</v>
@@ -5773,7 +5773,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>3281.039583816041</v>
@@ -5802,7 +5802,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>3466.209689721104</v>
@@ -5831,7 +5831,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>3001.812973773831</v>
@@ -5860,7 +5860,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>3466.209689721104</v>
@@ -5889,7 +5889,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>3281.039583816041</v>
@@ -5918,7 +5918,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>3466.209689721104</v>
@@ -5947,7 +5947,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>3466.209689721104</v>
@@ -5976,7 +5976,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>2568.505709019309</v>
@@ -6005,7 +6005,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>2211.796665599203</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>7042.385835217517</v>
@@ -6063,7 +6063,7 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>2337.147236148154</v>
@@ -6092,7 +6092,7 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>1378.544918165771</v>
@@ -6121,7 +6121,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>4133.064117428699</v>
@@ -6150,7 +6150,7 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>3953.918538108076</v>
@@ -6179,7 +6179,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>4842.156045265039</v>
@@ -6208,7 +6208,7 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>1825.82630610382</v>
@@ -6237,7 +6237,7 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>1691.571058378525</v>
@@ -6266,7 +6266,7 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>4628.474794715825</v>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>5790.928551094132</v>
@@ -6324,7 +6324,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>5608.180594038894</v>
@@ -6353,7 +6353,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>2027.752741539307</v>
@@ -6382,7 +6382,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>2912.044397447891</v>
@@ -6411,7 +6411,7 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>2601.654536358706</v>
@@ -6440,7 +6440,7 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>6697.576726963729</v>
@@ -6469,7 +6469,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>3164.153325206556</v>
@@ -6498,7 +6498,7 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>3273.266173030572</v>
@@ -6527,7 +6527,7 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>2164.835607297029</v>
@@ -6556,7 +6556,7 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>3164.153325206556</v>
@@ -6585,7 +6585,7 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>6697.576726963729</v>
@@ -6614,7 +6614,7 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>3164.153325206556</v>
@@ -6643,7 +6643,7 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>3273.266173030572</v>
@@ -6672,7 +6672,7 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="1">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>3273.266173030572</v>
@@ -6701,7 +6701,7 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>2660.459729151818</v>
@@ -6730,7 +6730,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>4178.129839189995</v>
@@ -6759,7 +6759,7 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>11663.26384752829</v>
@@ -6788,7 +6788,7 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B97">
         <v>5564.223101986477</v>
@@ -6817,7 +6817,7 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>5564.223101986477</v>
@@ -6846,7 +6846,7 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="1">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>5564.223101986477</v>
@@ -6875,7 +6875,7 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="1">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>5564.223101986477</v>
@@ -6904,7 +6904,7 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="1">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B101">
         <v>11663.26384752829</v>
@@ -6933,7 +6933,7 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="1">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>5564.223101986477</v>
@@ -6962,7 +6962,7 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="1">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>3813.457962750628</v>
@@ -6991,7 +6991,7 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="1">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B104">
         <v>1880.865998794549</v>
@@ -7020,7 +7020,7 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="1">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>1880.865998794549</v>
@@ -7049,7 +7049,7 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="1">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B106">
         <v>4994.528489180068</v>
@@ -7078,7 +7078,7 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="1">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B107">
         <v>2660.459729151818</v>
@@ -7107,7 +7107,7 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="1">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B108">
         <v>6216.654935296984</v>
@@ -7136,7 +7136,7 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="1">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B109">
         <v>3813.457962750628</v>
@@ -7165,7 +7165,7 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B110">
         <v>4994.528489180068</v>
@@ -7194,7 +7194,7 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="1">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B111">
         <v>3813.457962750628</v>
@@ -7223,7 +7223,7 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="1">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B112">
         <v>2660.459729151818</v>
@@ -7252,7 +7252,7 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="1">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B113">
         <v>5564.223101986477</v>
@@ -7281,7 +7281,7 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="1">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B114">
         <v>7568.63863150392</v>
@@ -7310,7 +7310,7 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="1">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B115">
         <v>4465.68998109641</v>
@@ -7339,7 +7339,7 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="1">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B116">
         <v>4392.156862745099</v>
@@ -7368,7 +7368,7 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="1">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B117">
         <v>9007.790351399643</v>
@@ -7397,7 +7397,7 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="1">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B118">
         <v>4981.999187322227</v>
@@ -7426,7 +7426,7 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="1">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B119">
         <v>6456.238185255199</v>
@@ -7455,7 +7455,7 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="1">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B120">
         <v>6413.640238704178</v>
@@ -7484,7 +7484,7 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="1">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B121">
         <v>6456.238185255199</v>
@@ -7513,7 +7513,7 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="1">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B122">
         <v>9007.790351399643</v>
@@ -7542,7 +7542,7 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="1">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B123">
         <v>3295.747468731388</v>
@@ -7571,7 +7571,7 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="1">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B124">
         <v>3788.576300085252</v>
@@ -7600,7 +7600,7 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="1">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B125">
         <v>3501.40848737308</v>
@@ -7629,7 +7629,7 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="1">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="B126">
         <v>4465.68998109641</v>
@@ -7658,7 +7658,7 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="1">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B127">
         <v>3035.727788279773</v>
@@ -7687,7 +7687,7 @@
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="1">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B128">
         <v>6529.923273657289</v>
@@ -7716,7 +7716,7 @@
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="1">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B129">
         <v>3035.727788279773</v>
@@ -7745,7 +7745,7 @@
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="1">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="B130">
         <v>7568.63863150392</v>
@@ -7774,7 +7774,7 @@
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="1">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="B131">
         <v>3143.29958308517</v>
@@ -7803,7 +7803,7 @@
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="1">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B132">
         <v>2229.898749255509</v>
@@ -7832,7 +7832,7 @@
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="1">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="B133">
         <v>2229.898749255509</v>
@@ -7861,7 +7861,7 @@
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="1">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B134">
         <v>3295.747468731388</v>
@@ -7890,7 +7890,7 @@
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="1">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="B135">
         <v>1669.200728976829</v>
@@ -7919,7 +7919,7 @@
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="1">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="B136">
         <v>6529.923273657289</v>
@@ -7948,7 +7948,7 @@
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="1">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="B137">
         <v>4981.999187322227</v>
@@ -7977,7 +7977,7 @@
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="1">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B138">
         <v>4465.68998109641</v>
@@ -8006,7 +8006,7 @@
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="1">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="B139">
         <v>3116.497915425849</v>
@@ -8035,7 +8035,7 @@
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="1">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B140">
         <v>3143.29958308517</v>
@@ -8064,7 +8064,7 @@
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="1">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="B141">
         <v>1943.085169743895</v>
@@ -8093,7 +8093,7 @@
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="1">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="B142">
         <v>4465.68998109641</v>
@@ -8122,7 +8122,7 @@
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="1">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="B143">
         <v>2381.346039309113</v>
@@ -8151,7 +8151,7 @@
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="1">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B144">
         <v>3295.747468731388</v>
@@ -8180,7 +8180,7 @@
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="1">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="B145">
         <v>6885.53100498931</v>
@@ -8209,7 +8209,7 @@
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="1">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B146">
         <v>4046.95652173913</v>
@@ -8238,7 +8238,7 @@
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="1">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="B147">
         <v>1669.200728976829</v>
@@ -8267,7 +8267,7 @@
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="1">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B148">
         <v>1943.085169743895</v>
@@ -8296,7 +8296,7 @@
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="1">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="B149">
         <v>1669.200728976829</v>
@@ -8325,7 +8325,7 @@
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="1">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="B150">
         <v>3788.576300085252</v>
@@ -8354,7 +8354,7 @@
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="1">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="B151">
         <v>3295.747468731388</v>
@@ -8383,7 +8383,7 @@
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="1">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="B152">
         <v>1553.308128544423</v>
@@ -8412,7 +8412,7 @@
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="1">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="B153">
         <v>7054.526015680684</v>
@@ -8441,7 +8441,7 @@
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="1">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="B154">
         <v>4465.68998109641</v>
@@ -8470,7 +8470,7 @@
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="1">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B155">
         <v>4465.68998109641</v>
@@ -8499,7 +8499,7 @@
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="1">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="B156">
         <v>4465.68998109641</v>
@@ -8528,7 +8528,7 @@
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="1">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="B157">
         <v>3788.576300085252</v>
@@ -8557,7 +8557,7 @@
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="1">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="B158">
         <v>4619.178082191781</v>
@@ -8586,7 +8586,7 @@
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="1">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="B159">
         <v>4465.68998109641</v>
@@ -8615,7 +8615,7 @@
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="1">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="B160">
         <v>2603.120905300774</v>
